--- a/Python/combined_svm.xlsx
+++ b/Python/combined_svm.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40CE4AD-EDAC-40A4-AA99-4B17FD16D921}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7361656C-4887-4960-B725-241EB83E1514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0,01" sheetId="1" r:id="rId1"/>
-    <sheet name="0,001" sheetId="2" r:id="rId2"/>
+    <sheet name="combined" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>rbf</t>
   </si>
@@ -35,13 +34,19 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>std_dev</t>
+    <t>sensibility</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>0,05</t>
+  </si>
+  <si>
+    <t>0,01</t>
   </si>
   <si>
     <t>0,001</t>
-  </si>
-  <si>
-    <t>0,01</t>
   </si>
 </sst>
 </file>
@@ -73,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,19 +101,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,48 +468,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -510,8 +545,17 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -533,8 +577,17 @@
       <c r="G4">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J4">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -556,8 +609,17 @@
       <c r="G5">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I5">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J5">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -579,8 +641,17 @@
       <c r="G6">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I6">
+        <v>0.5</v>
+      </c>
+      <c r="J6">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -602,8 +673,17 @@
       <c r="G7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I7">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J7">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -625,8 +705,17 @@
       <c r="G8">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -648,8 +737,17 @@
       <c r="G9">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -671,8 +769,17 @@
       <c r="G10">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -694,8 +801,17 @@
       <c r="G11">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J11">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -717,8 +833,17 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -740,8 +865,17 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0.5</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -763,8 +897,17 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.4</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -786,8 +929,17 @@
       <c r="G15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0.4</v>
+      </c>
+      <c r="J15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -809,8 +961,17 @@
       <c r="G16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -832,8 +993,17 @@
       <c r="G17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0.6</v>
+      </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -855,8 +1025,17 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0.4</v>
+      </c>
+      <c r="I18">
+        <v>0.4</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -878,8 +1057,17 @@
       <c r="G19">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.2</v>
+      </c>
+      <c r="I19">
+        <v>0.4</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -901,8 +1089,17 @@
       <c r="G20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0.6</v>
+      </c>
+      <c r="I20">
+        <v>0.8</v>
+      </c>
+      <c r="J20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -924,8 +1121,17 @@
       <c r="G21">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0.6</v>
+      </c>
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -947,70 +1153,118 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0.8</v>
+      </c>
+      <c r="I22">
+        <v>0.8</v>
+      </c>
+      <c r="J22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>0.83166666666666667</v>
+        <v>0.8288288288288288</v>
       </c>
       <c r="C23">
-        <v>0.7583333333333333</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="D23">
-        <v>0.83166666666666667</v>
+        <v>0.8288288288288288</v>
       </c>
       <c r="E23">
-        <v>0.82000000000000006</v>
+        <v>0.81981981981981977</v>
       </c>
       <c r="F23">
-        <v>0.77666666666666662</v>
+        <v>0.77477477477477474</v>
       </c>
       <c r="G23">
-        <v>0.81166666666666676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="H23">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="I23">
+        <v>0.57657657657657657</v>
+      </c>
+      <c r="J23">
+        <v>0.65765765765765771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.14002975874196649</v>
+        <v>0.8</v>
       </c>
       <c r="C24">
-        <v>0.16662499479036419</v>
+        <v>0.87692307692307692</v>
       </c>
       <c r="D24">
-        <v>0.14002975874196649</v>
+        <v>0.8</v>
       </c>
       <c r="E24">
-        <v>0.15289793254906289</v>
+        <v>0.81538461538461537</v>
       </c>
       <c r="F24">
-        <v>0.14761059883656349</v>
+        <v>0.86153846153846159</v>
       </c>
       <c r="G24">
-        <v>0.1524886152398853</v>
+        <v>0.83076923076923082</v>
+      </c>
+      <c r="H24">
+        <v>0.89230769230769236</v>
+      </c>
+      <c r="I24">
+        <v>0.98461538461538467</v>
+      </c>
+      <c r="J24">
+        <v>0.86153846153846159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="C25">
+        <v>0.58695652173913049</v>
+      </c>
+      <c r="D25">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="E25">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="F25">
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="G25">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="H25">
+        <v>0.17391304347826089</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.36956521739130432</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Python/combined_svm.xlsx
+++ b/Python/combined_svm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7361656C-4887-4960-B725-241EB83E1514}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED765462-0306-42C0-883B-16BCB2044B58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>rbf</t>
   </si>
@@ -57,7 +57,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,7 +65,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,11 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -130,6 +127,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,10 +151,1165 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SVM average accuracy for 3 different values for </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ε</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:shade val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>combined!$F$27:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>rbf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>poly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>combined!$F$28:$H$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8288288288288288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7567567567567568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8288288288288288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93AE-4DFF-BF0A-29001BA8C69A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>combined!$F$27:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>rbf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>poly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>combined!$F$29:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81981981981981977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77477477477477474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81081081081081086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-93AE-4DFF-BF0A-29001BA8C69A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:tint val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>combined!$F$27:$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>rbf</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>poly</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>combined!$F$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.59459459459459463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57657657657657657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65765765765765771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-93AE-4DFF-BF0A-29001BA8C69A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2006964528"/>
+        <c:axId val="81959136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2006964528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Kernel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81959136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81959136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Average accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006964528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>105727</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F963A1-3564-4CBB-A0CB-A346F60E0D93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ion Boardroom">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ion Boardroom">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,48 +1317,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="3B3059"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="EBEBEB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="B31166"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E33D6F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="E45F3C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="E9943A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="9B6BF2"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="D53DD0"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="8F8F8F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ion Boardroom">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -223,35 +1382,18 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="メイリオ"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -275,26 +1417,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ion Boardroom">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -303,66 +1428,52 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:tint val="64000"/>
+                <a:lumMod val="118000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="92000"/>
+                <a:alpha val="100000"/>
+                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="98000"/>
+                <a:lumMod val="114000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="84000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -371,28 +1482,22 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="45000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="63500" dist="38100" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -400,12 +1505,10 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
+            <a:lightRig rig="threePt" dir="tl"/>
           </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+          <a:sp3d prstMaterial="plastic">
+            <a:bevelT w="0" h="0"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -417,113 +1520,114 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:hueMod val="124000"/>
+                <a:satMod val="148000"/>
+                <a:lumMod val="124000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="76000"/>
+                <a:hueMod val="89000"/>
+                <a:satMod val="164000"/>
+                <a:lumMod val="56000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect l="45000" t="65000" r="125000" b="100000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
+                <a:shade val="69000"/>
+                <a:hueMod val="91000"/>
+                <a:satMod val="164000"/>
+                <a:lumMod val="74000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
+                <a:hueMod val="124000"/>
+                <a:satMod val="140000"/>
+                <a:lumMod val="142000"/>
               </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Ion Boardroom" id="{FC33163D-4339-46B1-8EED-24C834239D99}" vid="{B8502691-933B-45FE-8764-BA278511EF27}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -555,7 +1659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -587,7 +1691,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -619,7 +1723,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -651,7 +1755,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -683,7 +1787,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -715,7 +1819,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -747,7 +1851,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -779,7 +1883,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -811,7 +1915,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -843,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -875,7 +1979,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -907,7 +2011,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -939,7 +2043,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -971,7 +2075,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1003,7 +2107,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1035,7 +2139,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1067,7 +2171,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1099,7 +2203,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1131,7 +2235,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1163,7 +2267,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,7 +2299,7 @@
         <v>0.65765765765765771</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1227,7 +2331,7 @@
         <v>0.86153846153846159</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1257,6 +2361,59 @@
       </c>
       <c r="J25">
         <v>0.36956521739130432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E28" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>0.8288288288288288</v>
+      </c>
+      <c r="G28">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="H28">
+        <v>0.8288288288288288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E29" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0.81981981981981977</v>
+      </c>
+      <c r="G29">
+        <v>0.77477477477477474</v>
+      </c>
+      <c r="H29">
+        <v>0.81081081081081086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F30">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="G30">
+        <v>0.57657657657657657</v>
+      </c>
+      <c r="H30">
+        <v>0.65765765765765771</v>
       </c>
     </row>
   </sheetData>
@@ -1266,5 +2423,6 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python/combined_svm.xlsx
+++ b/Python/combined_svm.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED765462-0306-42C0-883B-16BCB2044B58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00333CE9-FD1F-4E51-9BB2-635AAA523951}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>rbf</t>
   </si>
@@ -47,6 +54,15 @@
   </si>
   <si>
     <t>0,001</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -118,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -127,13 +143,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -196,12 +214,6 @@
               </a:rPr>
               <a:t>ε</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
             <a:endParaRPr lang="pt-BR">
               <a:effectLst/>
             </a:endParaRPr>
@@ -253,7 +265,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.001</c:v>
+                  <c:v>0.10%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,7 +319,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93AE-4DFF-BF0A-29001BA8C69A}"/>
+              <c16:uniqueId val="{00000000-36C3-46CF-B8B2-E55890515979}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -320,7 +332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>1%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -372,7 +384,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93AE-4DFF-BF0A-29001BA8C69A}"/>
+              <c16:uniqueId val="{00000001-36C3-46CF-B8B2-E55890515979}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -385,7 +397,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>5%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -439,7 +451,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-93AE-4DFF-BF0A-29001BA8C69A}"/>
+              <c16:uniqueId val="{00000002-36C3-46CF-B8B2-E55890515979}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -453,11 +465,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2006964528"/>
-        <c:axId val="81959136"/>
+        <c:axId val="789321583"/>
+        <c:axId val="434714575"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2006964528"/>
+        <c:axId val="789321583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -555,7 +567,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81959136"/>
+        <c:crossAx val="434714575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -563,7 +575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81959136"/>
+        <c:axId val="434714575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -604,7 +616,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Average accuracy</a:t>
+                  <a:t>Average Accuracy</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -669,7 +681,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2006964528"/>
+        <c:crossAx val="789321583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1269,23 +1281,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>105727</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>298452</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F963A1-3564-4CBB-A0CB-A346F60E0D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2437C3-D714-4DF9-A659-CB149C407EE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1572,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="B23:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1611,21 +1623,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2364,18 +2376,18 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E28" s="5">
+      <c r="E28" s="7">
         <v>1E-3</v>
       </c>
       <c r="F28">
@@ -2389,7 +2401,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E29" s="5">
+      <c r="E29" s="8">
         <v>0.01</v>
       </c>
       <c r="F29">
@@ -2403,7 +2415,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="5">
+      <c r="E30" s="8">
         <v>0.05</v>
       </c>
       <c r="F30">
@@ -2414,6 +2426,68 @@
       </c>
       <c r="H30">
         <v>0.65765765765765771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="F33">
+        <f>MAX(F28:H28)</f>
+        <v>0.8288288288288288</v>
+      </c>
+      <c r="G33">
+        <f>AVERAGE(F28:H28)</f>
+        <v>0.80480480480480487</v>
+      </c>
+      <c r="H33">
+        <f>_xlfn.STDEV.S(F28:H28)</f>
+        <v>4.1610830211864881E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F35" si="0">MAX(F29:H29)</f>
+        <v>0.81981981981981977</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G35" si="1">AVERAGE(F29:H29)</f>
+        <v>0.80180180180180172</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H35" si="2">_xlfn.STDEV.S(F29:H29)</f>
+        <v>2.3835597396978301E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.65765765765765771</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.60960960960960964</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>4.2574915551825326E-2</v>
       </c>
     </row>
   </sheetData>
